--- a/outcome/appendix/data/forecast/Rubella.xlsx
+++ b/outcome/appendix/data/forecast/Rubella.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">风疹</t>
+    <t xml:space="preserve">Rubella</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1722.50748368523</v>
+        <v>1478.41575993364</v>
       </c>
       <c r="C2" t="n">
-        <v>1128.65460342033</v>
+        <v>971.206655079578</v>
       </c>
       <c r="D2" t="n">
-        <v>814.287878069938</v>
+        <v>702.706373848726</v>
       </c>
       <c r="E2" t="n">
-        <v>2316.36036395013</v>
+        <v>1985.62486478771</v>
       </c>
       <c r="F2" t="n">
-        <v>2630.72708930052</v>
+        <v>2254.12514601856</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>1199</v>
       </c>
       <c r="I2" t="n">
-        <v>523.50748368523</v>
+        <v>279.415759933643</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1573.7547520467</v>
+        <v>1223.50203970203</v>
       </c>
       <c r="C3" t="n">
-        <v>792.728171138095</v>
+        <v>-10942.1315196527</v>
       </c>
       <c r="D3" t="n">
-        <v>379.277673866225</v>
+        <v>-17382.2289090284</v>
       </c>
       <c r="E3" t="n">
-        <v>2354.78133295532</v>
+        <v>13389.1355990568</v>
       </c>
       <c r="F3" t="n">
-        <v>2768.23183022718</v>
+        <v>19829.2329884325</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>306</v>
       </c>
       <c r="I3" t="n">
-        <v>1267.7547520467</v>
+        <v>917.502039702031</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>5000.35717921842</v>
+        <v>3887.44231967008</v>
       </c>
       <c r="C4" t="n">
-        <v>1905.97617927905</v>
+        <v>-1230131.24840445</v>
       </c>
       <c r="D4" t="n">
-        <v>267.909826037655</v>
+        <v>-1883381.28341493</v>
       </c>
       <c r="E4" t="n">
-        <v>8094.73817915779</v>
+        <v>1237906.13304379</v>
       </c>
       <c r="F4" t="n">
-        <v>9732.80453239918</v>
+        <v>1891156.16805427</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>197</v>
       </c>
       <c r="I4" t="n">
-        <v>4803.35717921842</v>
+        <v>3690.44231967008</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>8709.16575577456</v>
+        <v>7432.80343405491</v>
       </c>
       <c r="C5" t="n">
-        <v>2371.80108461244</v>
+        <v>-74042585.4433179</v>
       </c>
       <c r="D5" t="n">
-        <v>-982.997124223106</v>
+        <v>-113242297.227126</v>
       </c>
       <c r="E5" t="n">
-        <v>15046.5304269367</v>
+        <v>74057451.050186</v>
       </c>
       <c r="F5" t="n">
-        <v>18401.3286357722</v>
+        <v>113257162.833994</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>116</v>
       </c>
       <c r="I5" t="n">
-        <v>8593.16575577456</v>
+        <v>7316.80343405491</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>9717.02457056929</v>
+        <v>8740.12974846011</v>
       </c>
       <c r="C6" t="n">
-        <v>1665.09733903548</v>
+        <v>-1954071648.94833</v>
       </c>
       <c r="D6" t="n">
-        <v>-2597.33546318961</v>
+        <v>-2988499321.86267</v>
       </c>
       <c r="E6" t="n">
-        <v>17768.9518021031</v>
+        <v>1954089129.20782</v>
       </c>
       <c r="F6" t="n">
-        <v>22031.3846043282</v>
+        <v>2988516802.12216</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>90</v>
       </c>
       <c r="I6" t="n">
-        <v>9627.02457056929</v>
+        <v>8650.12974846011</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5505.56319948048</v>
+        <v>5495.18568337417</v>
       </c>
       <c r="C7" t="n">
-        <v>414.285516131601</v>
+        <v>-34894529074.1499</v>
       </c>
       <c r="D7" t="n">
-        <v>-2280.87408711893</v>
+        <v>-53366579862.7138</v>
       </c>
       <c r="E7" t="n">
-        <v>10596.8408828294</v>
+        <v>34894540064.5213</v>
       </c>
       <c r="F7" t="n">
-        <v>13292.0004860799</v>
+        <v>53366590853.0852</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>114</v>
       </c>
       <c r="I7" t="n">
-        <v>5391.56319948048</v>
+        <v>5381.18568337417</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2489.08076783683</v>
+        <v>2679.79111849818</v>
       </c>
       <c r="C8" t="n">
-        <v>-44.2577403004939</v>
+        <v>-431148663972.811</v>
       </c>
       <c r="D8" t="n">
-        <v>-1385.32613867542</v>
+        <v>-659384981382.45</v>
       </c>
       <c r="E8" t="n">
-        <v>5022.41927597416</v>
+        <v>431148669332.394</v>
       </c>
       <c r="F8" t="n">
-        <v>6363.48767434909</v>
+        <v>659384986742.032</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>96</v>
       </c>
       <c r="I8" t="n">
-        <v>2393.08076783683</v>
+        <v>2583.79111849818</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,28 +648,28 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1236.72874640402</v>
+        <v>1266.64534806666</v>
       </c>
       <c r="C9" t="n">
-        <v>-134.68338178881</v>
+        <v>-5492990582365.5</v>
       </c>
       <c r="D9" t="n">
-        <v>-860.665109205004</v>
+        <v>-8400804149568.74</v>
       </c>
       <c r="E9" t="n">
-        <v>2608.14087459684</v>
+        <v>5492990584898.8</v>
       </c>
       <c r="F9" t="n">
-        <v>3334.12260201304</v>
+        <v>8400804152102.03</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I9" t="n">
-        <v>1154.72874640402</v>
+        <v>1170.64534806666</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1020.38472702269</v>
+        <v>1049.79372252444</v>
       </c>
       <c r="C10" t="n">
-        <v>-203.003155959862</v>
+        <v>-111859805430728</v>
       </c>
       <c r="D10" t="n">
-        <v>-850.625581290224</v>
+        <v>-171074809517656</v>
       </c>
       <c r="E10" t="n">
-        <v>2243.77261000524</v>
+        <v>111859805432827</v>
       </c>
       <c r="F10" t="n">
-        <v>2891.3950353356</v>
+        <v>171074809519756</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>102</v>
       </c>
       <c r="I10" t="n">
-        <v>918.384727022687</v>
+        <v>947.79372252444</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1086.38153310003</v>
+        <v>1052.58476231647</v>
       </c>
       <c r="C11" t="n">
-        <v>-313.458742176718</v>
+        <v>-2701625957557288</v>
       </c>
       <c r="D11" t="n">
-        <v>-1054.4894216205</v>
+        <v>-4131780350376587</v>
       </c>
       <c r="E11" t="n">
-        <v>2486.22180837678</v>
+        <v>2701625957559393</v>
       </c>
       <c r="F11" t="n">
-        <v>3227.25248782056</v>
+        <v>4131780350378692</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>157</v>
       </c>
       <c r="I11" t="n">
-        <v>929.38153310003</v>
+        <v>895.584762316473</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1268.69925915799</v>
+        <v>1234.61329694903</v>
       </c>
       <c r="C12" t="n">
-        <v>-479.756132394754</v>
+        <v>-55859746202123968</v>
       </c>
       <c r="D12" t="n">
-        <v>-1405.33250683028</v>
+        <v>-85430109630576240</v>
       </c>
       <c r="E12" t="n">
-        <v>3017.15465071074</v>
+        <v>55859746202126432</v>
       </c>
       <c r="F12" t="n">
-        <v>3942.73102514626</v>
+        <v>85430109630578704</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>276</v>
       </c>
       <c r="I12" t="n">
-        <v>992.699259157991</v>
+        <v>958.613296949033</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1718.01420378355</v>
+        <v>1718.68622203544</v>
       </c>
       <c r="C13" t="n">
-        <v>-804.340402051133</v>
+        <v>-1162643127727701760</v>
       </c>
       <c r="D13" t="n">
-        <v>-2139.59427377611</v>
+        <v>-1778109222043623936</v>
       </c>
       <c r="E13" t="n">
-        <v>4240.36880961823</v>
+        <v>1162643127727705344</v>
       </c>
       <c r="F13" t="n">
-        <v>5575.62268134321</v>
+        <v>1778109222043627520</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>104</v>
       </c>
       <c r="I13" t="n">
-        <v>1614.01420378355</v>
+        <v>1614.68622203544</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1722.52003769654</v>
+        <v>1478.97496387825</v>
       </c>
       <c r="C14" t="n">
-        <v>-962.848490676093</v>
+        <v>-17039055278306021376</v>
       </c>
       <c r="D14" t="n">
-        <v>-2384.39672034359</v>
+        <v>-26058986289697337344</v>
       </c>
       <c r="E14" t="n">
-        <v>4407.88856606918</v>
+        <v>17039055278306025472</v>
       </c>
       <c r="F14" t="n">
-        <v>5829.43679573668</v>
+        <v>26058986289697337344</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>127</v>
       </c>
       <c r="I14" t="n">
-        <v>1595.52003769654</v>
+        <v>1351.97496387825</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1573.76622191557</v>
+        <v>1223.93491402663</v>
       </c>
       <c r="C15" t="n">
-        <v>-1024.18726743177</v>
+        <v>-276643225733789024256</v>
       </c>
       <c r="D15" t="n">
-        <v>-2399.4607706847</v>
+        <v>-423089303296817364992</v>
       </c>
       <c r="E15" t="n">
-        <v>4171.71971126291</v>
+        <v>276643225733789024256</v>
       </c>
       <c r="F15" t="n">
-        <v>5546.99321451584</v>
+        <v>423089303296817364992</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>46</v>
       </c>
       <c r="I15" t="n">
-        <v>1527.76622191557</v>
+        <v>1177.93491402663</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>5000.39362291529</v>
+        <v>3888.72892963638</v>
       </c>
       <c r="C16" t="n">
-        <v>-3719.68604150992</v>
+        <v>-19344680646204551331840</v>
       </c>
       <c r="D16" t="n">
-        <v>-8335.81737639056</v>
+        <v>-29585136001045609054208</v>
       </c>
       <c r="E16" t="n">
-        <v>13720.4732873405</v>
+        <v>19344680646204551331840</v>
       </c>
       <c r="F16" t="n">
-        <v>18336.6046222211</v>
+        <v>29585136001045609054208</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>82</v>
       </c>
       <c r="I16" t="n">
-        <v>4918.39362291529</v>
+        <v>3806.72892963638</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>8709.22923007958</v>
+        <v>7435.10491003939</v>
       </c>
       <c r="C17" t="n">
-        <v>-7302.47465403387</v>
+        <v>-862700265262260942798848</v>
       </c>
       <c r="D17" t="n">
-        <v>-15778.5586886581</v>
+        <v>-1319386199375163959541760</v>
       </c>
       <c r="E17" t="n">
-        <v>24720.933114193</v>
+        <v>862700265262260942798848</v>
       </c>
       <c r="F17" t="n">
-        <v>33197.0171488173</v>
+        <v>1319386199375163959541760</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>107</v>
       </c>
       <c r="I17" t="n">
-        <v>8602.22923007958</v>
+        <v>7328.10491003939</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>9717.0953903698</v>
+        <v>8742.66190422411</v>
       </c>
       <c r="C18" t="n">
-        <v>-9083.3900349258</v>
+        <v>-20975010234192669569974272</v>
       </c>
       <c r="D18" t="n">
-        <v>-19035.7658413909</v>
+        <v>-32078509940336803560030208</v>
       </c>
       <c r="E18" t="n">
-        <v>28517.5808156654</v>
+        <v>20975010234192669569974272</v>
       </c>
       <c r="F18" t="n">
-        <v>38469.9566221305</v>
+        <v>32078509940336803560030208</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>187</v>
       </c>
       <c r="I18" t="n">
-        <v>9530.0953903698</v>
+        <v>8555.66190422411</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>5505.60332522934</v>
+        <v>5496.67547181079</v>
       </c>
       <c r="C19" t="n">
-        <v>-5687.28189116755</v>
+        <v>-424642954380847013343264768</v>
       </c>
       <c r="D19" t="n">
-        <v>-11612.4374130738</v>
+        <v>-649435355745098040812240896</v>
       </c>
       <c r="E19" t="n">
-        <v>16698.4885416262</v>
+        <v>424642954380847013343264768</v>
       </c>
       <c r="F19" t="n">
-        <v>22623.6440635325</v>
+        <v>649435355745098040812240896</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>115</v>
       </c>
       <c r="I19" t="n">
-        <v>5390.60332522934</v>
+        <v>5381.67547181079</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2489.09890880192</v>
+        <v>2680.47105299223</v>
       </c>
       <c r="C20" t="n">
-        <v>-2820.89896545507</v>
+        <v>-7138006667265856983200169984</v>
       </c>
       <c r="D20" t="n">
-        <v>-5631.84204382005</v>
+        <v>-10916639146941113778078482432</v>
       </c>
       <c r="E20" t="n">
-        <v>7799.09678305891</v>
+        <v>7138006667265856983200169984</v>
       </c>
       <c r="F20" t="n">
-        <v>10610.0398614239</v>
+        <v>10916639146941113778078482432</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>102</v>
       </c>
       <c r="I20" t="n">
-        <v>2387.09890880192</v>
+        <v>2578.47105299223</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1236.73775995364</v>
+        <v>1266.94616532985</v>
       </c>
       <c r="C21" t="n">
-        <v>-1528.44338916086</v>
+        <v>-52425603087332814470212747264</v>
       </c>
       <c r="D21" t="n">
-        <v>-2992.241868104</v>
+        <v>-80178040963415425197367361536</v>
       </c>
       <c r="E21" t="n">
-        <v>4001.91890906813</v>
+        <v>52425603087332814470212747264</v>
       </c>
       <c r="F21" t="n">
-        <v>5465.71738801127</v>
+        <v>80178040963415425197367361536</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>68</v>
       </c>
       <c r="I21" t="n">
-        <v>1168.73775995364</v>
+        <v>1198.94616532985</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1020.39216380977</v>
+        <v>1050.02711920487</v>
       </c>
       <c r="C22" t="n">
-        <v>-1368.20900618701</v>
+        <v>-988455854382396748252642803712</v>
       </c>
       <c r="D22" t="n">
-        <v>-2632.65808597434</v>
+        <v>-1511712776125387923195554693120</v>
       </c>
       <c r="E22" t="n">
-        <v>3408.99333380655</v>
+        <v>988455854382396748252642803712</v>
       </c>
       <c r="F22" t="n">
-        <v>4673.44241359388</v>
+        <v>1511712776125387923195554693120</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>90</v>
       </c>
       <c r="I22" t="n">
-        <v>930.39216380977</v>
+        <v>960.027119204869</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1086.38945088627</v>
+        <v>1052.80386923054</v>
       </c>
       <c r="C23" t="n">
-        <v>-1573.59590189417</v>
+        <v>-27562955733332763192542101504000</v>
       </c>
       <c r="D23" t="n">
-        <v>-2981.70709007363</v>
+        <v>-42153903125893299575872993361920</v>
       </c>
       <c r="E23" t="n">
-        <v>3746.37480366671</v>
+        <v>27562955733332763192542101504000</v>
       </c>
       <c r="F23" t="n">
-        <v>5154.48599184617</v>
+        <v>42153903125893299575872993361920</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>101</v>
       </c>
       <c r="I23" t="n">
-        <v>985.389450886272</v>
+        <v>951.803869230543</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1268.7085057157</v>
+        <v>1234.85395907695</v>
       </c>
       <c r="C24" t="n">
-        <v>-1977.69438744411</v>
+        <v>-532061622339012667500181460090880</v>
       </c>
       <c r="D24" t="n">
-        <v>-3696.23626979628</v>
+        <v>-813718031624630809736493536378880</v>
       </c>
       <c r="E24" t="n">
-        <v>4515.11139887551</v>
+        <v>532061622339012667500181460090880</v>
       </c>
       <c r="F24" t="n">
-        <v>6233.65328122768</v>
+        <v>813718031624630809736493536378880</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>119</v>
       </c>
       <c r="I24" t="n">
-        <v>1149.7085057157</v>
+        <v>1115.85395907695</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1718.02672504686</v>
+        <v>1719.00000194307</v>
       </c>
       <c r="C25" t="n">
-        <v>-2872.73189195016</v>
+        <v>-11203962427968970682682010176061440</v>
       </c>
       <c r="D25" t="n">
-        <v>-5302.93270642748</v>
+        <v>-17134981871468740079930964195672064</v>
       </c>
       <c r="E25" t="n">
-        <v>6308.78534204388</v>
+        <v>11203962427968970682682010176061440</v>
       </c>
       <c r="F25" t="n">
-        <v>8738.98615652119</v>
+        <v>17134981871468740079930964195672064</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>158</v>
       </c>
       <c r="I25" t="n">
-        <v>1560.02672504686</v>
+        <v>1561.00000194307</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1722.53259179935</v>
+        <v>1479.22790746234</v>
       </c>
       <c r="C26" t="n">
-        <v>-3080.76099981079</v>
+        <v>-234176161366833966569066548955185152</v>
       </c>
       <c r="D26" t="n">
-        <v>-5623.47103367886</v>
+        <v>-358141533011034456515473797543886848</v>
       </c>
       <c r="E26" t="n">
-        <v>6525.82618340949</v>
+        <v>234176161366833966569066548955185152</v>
       </c>
       <c r="F26" t="n">
-        <v>9068.53621727756</v>
+        <v>358141533011034456515473797543886848</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>70</v>
       </c>
       <c r="I26" t="n">
-        <v>1652.53259179935</v>
+        <v>1409.22790746234</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1573.77769186803</v>
+        <v>1224.13104024149</v>
       </c>
       <c r="C27" t="n">
-        <v>-3002.97512390532</v>
+        <v>-2620882999290550695216358470893699072</v>
       </c>
       <c r="D27" t="n">
-        <v>-5425.76171507428</v>
+        <v>-4008294651897111873426123934926897152</v>
       </c>
       <c r="E27" t="n">
-        <v>6150.53050764139</v>
+        <v>2620882999290550695216358470893699072</v>
       </c>
       <c r="F27" t="n">
-        <v>8573.31709881035</v>
+        <v>4008294651897111873426123934926897152</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>55</v>
       </c>
       <c r="I27" t="n">
-        <v>1518.77769186803</v>
+        <v>1169.13104024149</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>5000.43006687777</v>
+        <v>3889.31289677108</v>
       </c>
       <c r="C28" t="n">
-        <v>-10156.7293834669</v>
+        <v>-200531803909201248900071136048279715840</v>
       </c>
       <c r="D28" t="n">
-        <v>-18180.4449203742</v>
+        <v>-306686928551221309318918410728357494784</v>
       </c>
       <c r="E28" t="n">
-        <v>20157.5895172224</v>
+        <v>200531803909201248900071136048279715840</v>
       </c>
       <c r="F28" t="n">
-        <v>28181.3050541297</v>
+        <v>306686928551221309318918410728357494784</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>98</v>
       </c>
       <c r="I28" t="n">
-        <v>4902.43006687777</v>
+        <v>3791.31289677108</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>8709.29270484721</v>
+        <v>7436.15147398185</v>
       </c>
       <c r="C29" t="n">
-        <v>-18792.8318357884</v>
+        <v>-8558709943707093971313801351394490318848</v>
       </c>
       <c r="D29" t="n">
-        <v>-33351.5771401165</v>
+        <v>-13089417308512458196314425738621184114688</v>
       </c>
       <c r="E29" t="n">
-        <v>36211.4172454828</v>
+        <v>8558709943707093971313801351394490318848</v>
       </c>
       <c r="F29" t="n">
-        <v>50770.1625498109</v>
+        <v>13089417308512458196314425738621184114688</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>97</v>
       </c>
       <c r="I29" t="n">
-        <v>8612.29270484721</v>
+        <v>7339.15147398185</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>9717.16621068647</v>
+        <v>8743.81567810924</v>
       </c>
       <c r="C30" t="n">
-        <v>-22234.4197383628</v>
+        <v>-393342647564438154638076551260111982559232</v>
       </c>
       <c r="D30" t="n">
-        <v>-39148.5676331642</v>
+        <v>-601565667380943113407800480046966976282624</v>
       </c>
       <c r="E30" t="n">
-        <v>41668.7521597358</v>
+        <v>393342647564438154638076551260111982559232</v>
       </c>
       <c r="F30" t="n">
-        <v>58582.9000545372</v>
+        <v>601565667380943113407800480046966976282624</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>155</v>
       </c>
       <c r="I30" t="n">
-        <v>9562.16621068647</v>
+        <v>8588.81567810924</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5505.64345127063</v>
+        <v>5497.35574307225</v>
       </c>
       <c r="C31" t="n">
-        <v>-13337.1253935064</v>
+        <v>-6309496878679633593219894786532553319776256</v>
       </c>
       <c r="D31" t="n">
-        <v>-23311.8846901603</v>
+        <v>-9649542769295293481472955247564325725929472</v>
       </c>
       <c r="E31" t="n">
-        <v>24348.4122960477</v>
+        <v>6309496878679633593219894786532553319776256</v>
       </c>
       <c r="F31" t="n">
-        <v>34323.1715927015</v>
+        <v>9649542769295293481472955247564325725929472</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>167</v>
       </c>
       <c r="I31" t="n">
-        <v>5338.64345127063</v>
+        <v>5330.35574307225</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2489.11704989922</v>
+        <v>2680.7822327782</v>
       </c>
       <c r="C32" t="n">
-        <v>-6374.19923132671</v>
+        <v>-87666601682208689915244534676633811238780928</v>
       </c>
       <c r="D32" t="n">
-        <v>-11066.1554509058</v>
+        <v>-134074497323196250975234256004662965978529792</v>
       </c>
       <c r="E32" t="n">
-        <v>11352.4333311251</v>
+        <v>87666601682208689915244534676633811238780928</v>
       </c>
       <c r="F32" t="n">
-        <v>16044.3895507042</v>
+        <v>134074497323196250975234256004662965978529792</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>106</v>
       </c>
       <c r="I32" t="n">
-        <v>2383.11704989922</v>
+        <v>2574.7822327782</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1236.74677356895</v>
+        <v>1267.08417095458</v>
       </c>
       <c r="C33" t="n">
-        <v>-3343.52069589339</v>
+        <v>-517167900732229658482285040764575974674137088</v>
       </c>
       <c r="D33" t="n">
-        <v>-5768.16783233824</v>
+        <v>-790940050051446219870265869055418067037716480</v>
       </c>
       <c r="E33" t="n">
-        <v>5817.01424303128</v>
+        <v>517167900732229658482285040764575974674137088</v>
       </c>
       <c r="F33" t="n">
-        <v>8241.66137947613</v>
+        <v>790940050051446219870265869055418067037716480</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>128</v>
       </c>
       <c r="I33" t="n">
-        <v>1108.74677356895</v>
+        <v>1139.08417095458</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1020.39960065105</v>
+        <v>1050.13446991749</v>
       </c>
       <c r="C34" t="n">
-        <v>-2908.7382576287</v>
+        <v>-7743259123772115847576811146718452721888788480</v>
       </c>
       <c r="D34" t="n">
-        <v>-4988.69819889679</v>
+        <v>-11842292899938989201106358973940494154682335232</v>
       </c>
       <c r="E34" t="n">
-        <v>4949.53745893081</v>
+        <v>7743259123772115847576811146718452721888788480</v>
       </c>
       <c r="F34" t="n">
-        <v>7029.4974001989</v>
+        <v>11842292899938989201106358973940494154682335232</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="I34" t="n">
-        <v>922.399600651055</v>
+        <v>952.134469917494</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1086.39736873022</v>
+        <v>1052.90492305294</v>
       </c>
       <c r="C35" t="n">
-        <v>-3261.72889103639</v>
+        <v>-310546570326517359644937741118012792164044505088</v>
       </c>
       <c r="D35" t="n">
-        <v>-5563.48789418066</v>
+        <v>-474939994399488957277623856876249114956724699136</v>
       </c>
       <c r="E35" t="n">
-        <v>5434.52362849683</v>
+        <v>310546570326517359644937741118012792164044505088</v>
       </c>
       <c r="F35" t="n">
-        <v>7736.2826316411</v>
+        <v>474939994399488957277623856876249114956724699136</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>118</v>
       </c>
       <c r="I35" t="n">
-        <v>968.39736873022</v>
+        <v>934.904923052942</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1268.7177523408</v>
+        <v>1234.96527692942</v>
       </c>
       <c r="C36" t="n">
-        <v>-4007.77128069096</v>
+        <v>-4544657303406633285238672205999068951134162911232</v>
       </c>
       <c r="D36" t="n">
-        <v>-6800.97585001383</v>
+        <v>-6950453556637573462988585911968555509034409525248</v>
       </c>
       <c r="E36" t="n">
-        <v>6545.20678537256</v>
+        <v>4544657303406633285238672205999068951134162911232</v>
       </c>
       <c r="F36" t="n">
-        <v>9338.41135469543</v>
+        <v>6950453556637573462988585911968555509034409525248</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>120</v>
       </c>
       <c r="I36" t="n">
-        <v>1148.7177523408</v>
+        <v>1114.96527692942</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1718.03924640142</v>
+        <v>1719.14558825428</v>
       </c>
       <c r="C37" t="n">
-        <v>-5704.7893770808</v>
+        <v>-93947364976113322209768525644148952919728600383488</v>
       </c>
       <c r="D37" t="n">
-        <v>-9634.19749270765</v>
+        <v>-143680095866742178608484941848144209496775021559808</v>
       </c>
       <c r="E37" t="n">
-        <v>9140.86786988363</v>
+        <v>93947364976113322209768525644148952919728600383488</v>
       </c>
       <c r="F37" t="n">
-        <v>13070.2759855105</v>
+        <v>143680095866742178608484941848144209496775021559808</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>72</v>
       </c>
       <c r="I37" t="n">
-        <v>1646.03924640142</v>
+        <v>1647.14558825428</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1722.54514599366</v>
+        <v>1479.34565158132</v>
       </c>
       <c r="C38" t="n">
-        <v>-6007.19247829894</v>
+        <v>-1499762154375237442577212272201636605433806709587968</v>
       </c>
       <c r="D38" t="n">
-        <v>-10099.0684050144</v>
+        <v>-2293688281440724503160744785197824572733948849815552</v>
       </c>
       <c r="E38" t="n">
-        <v>9452.28277028625</v>
+        <v>1499762154375237442577212272201636605433806709587968</v>
       </c>
       <c r="F38" t="n">
-        <v>13544.1586970017</v>
+        <v>2293688281440724503160744785197824572733948849815552</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>40</v>
       </c>
       <c r="I38" t="n">
-        <v>1682.54514599366</v>
+        <v>1439.34565158132</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1573.78916190409</v>
+        <v>1224.22265336492</v>
       </c>
       <c r="C39" t="n">
-        <v>-5759.55314179319</v>
+        <v>-16361774886888685409091797626859018962977209416941568</v>
       </c>
       <c r="D39" t="n">
-        <v>-9641.59006120408</v>
+        <v>-25023175316262902946088491853402988871513022408949760</v>
       </c>
       <c r="E39" t="n">
-        <v>8907.13146560138</v>
+        <v>16361774886888685409091797626859018962977209416941568</v>
       </c>
       <c r="F39" t="n">
-        <v>12789.1683850123</v>
+        <v>25023175316262902946088491853402988871513022408949760</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>67</v>
       </c>
       <c r="I39" t="n">
-        <v>1506.78916190409</v>
+        <v>1157.22265336492</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>5000.46651110586</v>
+        <v>3889.58668034087</v>
       </c>
       <c r="C40" t="n">
-        <v>-19189.8150661007</v>
+        <v>-882563671171032100842537072588089647238960943367979008</v>
       </c>
       <c r="D40" t="n">
-        <v>-31995.3766074344</v>
+        <v>-1349764657205651208516730974802955122017291388705570816</v>
       </c>
       <c r="E40" t="n">
-        <v>29190.7480883125</v>
+        <v>882563671171032100842537072588089647238960943367979008</v>
       </c>
       <c r="F40" t="n">
-        <v>41996.3096296461</v>
+        <v>1349764657205651208516730974802955122017291388705570816</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,9 +1661,297 @@
         <v>90</v>
       </c>
       <c r="I40" t="n">
-        <v>4910.46651110586</v>
+        <v>3799.58668034087</v>
       </c>
       <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7436.6440536482</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-31479551429164900795429867432561335809247469313846149120</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-48143819343250872765267809002263189593895981749467348992</v>
+      </c>
+      <c r="E41" t="n">
+        <v>31479551429164900795429867432561335809247469313846149120</v>
+      </c>
+      <c r="F41" t="n">
+        <v>48143819343250872765267809002263189593895981749467348992</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>75</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7361.6440536482</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>8744.36096164609</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1466969719376298819291191389256373310317424779486730125312</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-2243536579947559901617748243686358340327932312819817512960</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1466969719376298819291191389256373310317424779486730125312</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2243536579947559901617748243686358340327932312819817512960</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>73</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8671.36096164609</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5497.67865083359</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-13794887611846219645501636587071706761283130888269634469888</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-21097459998425151142091732042958744314160010478095517614080</v>
+      </c>
+      <c r="E43" t="n">
+        <v>13794887611846219645501636587071706761283130888269634469888</v>
+      </c>
+      <c r="F43" t="n">
+        <v>21097459998425151142091732042958744314160010478095517614080</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>110</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5387.67865083359</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2680.93062482737</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-111482055443168471952591245261766585215961684589828091412480</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-170497090765329305767788574918877644107366904099640979750912</v>
+      </c>
+      <c r="E44" t="n">
+        <v>111482055443168471952591245261766585215961684589828091412480</v>
+      </c>
+      <c r="F44" t="n">
+        <v>170497090765329305767788574918877644107366904099640979750912</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>99</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2581.93062482737</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1267.15030295537</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-666578104908784837162026587973930436273228851384977220173824</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-1019443238672171935843572396306212564350741001362049167523840</v>
+      </c>
+      <c r="E45" t="n">
+        <v>666578104908784837162026587973930436273228851384977220173824</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1019443238672171935843572396306212564350741001362049167523840</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>103</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1164.15030295537</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1050.18617730981</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-5967896508716492346389068003898452173642162318830222176157696</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-9127110086729923680006230786734478182830103647913403251425280</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5967896508716492346389068003898452173642162318830222176157696</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9127110086729923680006230786734478182830103647913403251425280</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>72</v>
+      </c>
+      <c r="I46" t="n">
+        <v>978.186177309808</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1052.95386203309</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-154391220234620332865112006135319724028779277033637041198333952</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-236120995303420184097159865455380508130581875889482141297278976</v>
+      </c>
+      <c r="E47" t="n">
+        <v>154391220234620332865112006135319724028779277033637041198333952</v>
+      </c>
+      <c r="F47" t="n">
+        <v>236120995303420184097159865455380508130581875889482141297278976</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>110</v>
+      </c>
+      <c r="I47" t="n">
+        <v>942.953862033085</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1235.01949541984</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-2443808758821103394188815791713069940898670606858712796920545280</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-3737482970774926898660733155678212973301638892983133093010341888</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2443808758821103394188815791713069940898670606858712796920545280</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3737482970774926898660733155678212973301638892983133093010341888</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>89</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1146.01949541984</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1719.21692507452</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-26937301385892755256202574214273587769236699184592682297199689728</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-41197047373286718006067036254492025977426796337241544463256387584</v>
+      </c>
+      <c r="E49" t="n">
+        <v>26937301385892755256202574214273587769236699184592682297199689728</v>
+      </c>
+      <c r="F49" t="n">
+        <v>41197047373286718006067036254492025977426796337241544463256387584</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>74</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1645.21692507452</v>
+      </c>
+      <c r="J49" t="s">
         <v>11</v>
       </c>
     </row>

--- a/outcome/appendix/data/forecast/Rubella.xlsx
+++ b/outcome/appendix/data/forecast/Rubella.xlsx
@@ -459,16 +459,16 @@
         <v>1223.50203970203</v>
       </c>
       <c r="C3" t="n">
-        <v>-10942.1315196527</v>
+        <v>-13336.8864799202</v>
       </c>
       <c r="D3" t="n">
-        <v>-17382.2289090284</v>
+        <v>-21044.6905688746</v>
       </c>
       <c r="E3" t="n">
-        <v>13389.1355990568</v>
+        <v>15783.8905593243</v>
       </c>
       <c r="F3" t="n">
-        <v>19829.2329884325</v>
+        <v>23491.6946482786</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -491,16 +491,16 @@
         <v>3887.44231967008</v>
       </c>
       <c r="C4" t="n">
-        <v>-1230131.24840445</v>
+        <v>-1460247.72458406</v>
       </c>
       <c r="D4" t="n">
-        <v>-1883381.28341493</v>
+        <v>-2235314.063716</v>
       </c>
       <c r="E4" t="n">
-        <v>1237906.13304379</v>
+        <v>1468022.6092234</v>
       </c>
       <c r="F4" t="n">
-        <v>1891156.16805427</v>
+        <v>2243088.94835534</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -523,16 +523,16 @@
         <v>7432.80343405491</v>
       </c>
       <c r="C5" t="n">
-        <v>-74042585.4433179</v>
+        <v>-81928863.7603683</v>
       </c>
       <c r="D5" t="n">
-        <v>-113242297.227126</v>
+        <v>-125303319.107982</v>
       </c>
       <c r="E5" t="n">
-        <v>74057451.050186</v>
+        <v>81943729.3672365</v>
       </c>
       <c r="F5" t="n">
-        <v>113257162.833994</v>
+        <v>125318184.71485</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -555,16 +555,16 @@
         <v>8740.12974846011</v>
       </c>
       <c r="C6" t="n">
-        <v>-1954071648.94833</v>
+        <v>-2365572445.90792</v>
       </c>
       <c r="D6" t="n">
-        <v>-2988499321.86267</v>
+        <v>-3617835482.29067</v>
       </c>
       <c r="E6" t="n">
-        <v>1954089129.20782</v>
+        <v>2365589926.16742</v>
       </c>
       <c r="F6" t="n">
-        <v>2988516802.12216</v>
+        <v>3617852962.55016</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -587,16 +587,16 @@
         <v>5495.18568337417</v>
       </c>
       <c r="C7" t="n">
-        <v>-34894529074.1499</v>
+        <v>-26371702155.5513</v>
       </c>
       <c r="D7" t="n">
-        <v>-53366579862.7138</v>
+        <v>-40332040905.3811</v>
       </c>
       <c r="E7" t="n">
-        <v>34894540064.5213</v>
+        <v>26371713145.9226</v>
       </c>
       <c r="F7" t="n">
-        <v>53366590853.0852</v>
+        <v>40332051895.7524</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -619,16 +619,16 @@
         <v>2679.79111849818</v>
       </c>
       <c r="C8" t="n">
-        <v>-431148663972.811</v>
+        <v>-637784976035.169</v>
       </c>
       <c r="D8" t="n">
-        <v>-659384981382.45</v>
+        <v>-975407949501.017</v>
       </c>
       <c r="E8" t="n">
-        <v>431148669332.394</v>
+        <v>637784981394.752</v>
       </c>
       <c r="F8" t="n">
-        <v>659384986742.032</v>
+        <v>975407954860.599</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -651,16 +651,16 @@
         <v>1266.64534806666</v>
       </c>
       <c r="C9" t="n">
-        <v>-5492990582365.5</v>
+        <v>-11079613134413.1</v>
       </c>
       <c r="D9" t="n">
-        <v>-8400804149568.74</v>
+        <v>-16944806038856.4</v>
       </c>
       <c r="E9" t="n">
-        <v>5492990584898.8</v>
+        <v>11079613136946.4</v>
       </c>
       <c r="F9" t="n">
-        <v>8400804152102.03</v>
+        <v>16944806041389.7</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -683,16 +683,16 @@
         <v>1049.79372252444</v>
       </c>
       <c r="C10" t="n">
-        <v>-111859805430728</v>
+        <v>-236037741454651</v>
       </c>
       <c r="D10" t="n">
-        <v>-171074809517656</v>
+        <v>-360988574070690</v>
       </c>
       <c r="E10" t="n">
-        <v>111859805432827</v>
+        <v>236037741456751</v>
       </c>
       <c r="F10" t="n">
-        <v>171074809519756</v>
+        <v>360988574072789</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -715,16 +715,16 @@
         <v>1052.58476231647</v>
       </c>
       <c r="C11" t="n">
-        <v>-2701625957557288</v>
+        <v>-4569512362517868</v>
       </c>
       <c r="D11" t="n">
-        <v>-4131780350376587</v>
+        <v>-6988466089259816</v>
       </c>
       <c r="E11" t="n">
-        <v>2701625957559393</v>
+        <v>4569512362519974</v>
       </c>
       <c r="F11" t="n">
-        <v>4131780350378692</v>
+        <v>6988466089261922</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -747,16 +747,16 @@
         <v>1234.61329694903</v>
       </c>
       <c r="C12" t="n">
-        <v>-55859746202123968</v>
+        <v>-96465418974375024</v>
       </c>
       <c r="D12" t="n">
-        <v>-85430109630576240</v>
+        <v>-147531127132599616</v>
       </c>
       <c r="E12" t="n">
-        <v>55859746202126432</v>
+        <v>96465418974377488</v>
       </c>
       <c r="F12" t="n">
-        <v>85430109630578704</v>
+        <v>147531127132602112</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -779,16 +779,16 @@
         <v>1718.68622203544</v>
       </c>
       <c r="C13" t="n">
-        <v>-1162643127727701760</v>
+        <v>-3755270558896961536</v>
       </c>
       <c r="D13" t="n">
-        <v>-1778109222043623936</v>
+        <v>-5743190711576164352</v>
       </c>
       <c r="E13" t="n">
-        <v>1162643127727705344</v>
+        <v>3755270558896964608</v>
       </c>
       <c r="F13" t="n">
-        <v>1778109222043627520</v>
+        <v>5743190711576168448</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -811,16 +811,16 @@
         <v>1478.97496387825</v>
       </c>
       <c r="C14" t="n">
-        <v>-17039055278306021376</v>
+        <v>-87694635732330725376</v>
       </c>
       <c r="D14" t="n">
-        <v>-26058986289697337344</v>
+        <v>-134117371703016161280</v>
       </c>
       <c r="E14" t="n">
-        <v>17039055278306025472</v>
+        <v>87694635732330725376</v>
       </c>
       <c r="F14" t="n">
-        <v>26058986289697337344</v>
+        <v>134117371703016161280</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -843,16 +843,16 @@
         <v>1223.93491402663</v>
       </c>
       <c r="C15" t="n">
-        <v>-276643225733789024256</v>
+        <v>-1664622866772268941312</v>
       </c>
       <c r="D15" t="n">
-        <v>-423089303296817364992</v>
+        <v>-2545820983277412941824</v>
       </c>
       <c r="E15" t="n">
-        <v>276643225733789024256</v>
+        <v>1664622866772268941312</v>
       </c>
       <c r="F15" t="n">
-        <v>423089303296817364992</v>
+        <v>2545820983277412941824</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -875,16 +875,16 @@
         <v>3888.72892963638</v>
       </c>
       <c r="C16" t="n">
-        <v>-19344680646204551331840</v>
+        <v>-110498679114815116410880</v>
       </c>
       <c r="D16" t="n">
-        <v>-29585136001045609054208</v>
+        <v>-168993146453886219845632</v>
       </c>
       <c r="E16" t="n">
-        <v>19344680646204551331840</v>
+        <v>110498679114815116410880</v>
       </c>
       <c r="F16" t="n">
-        <v>29585136001045609054208</v>
+        <v>168993146453886219845632</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -907,16 +907,16 @@
         <v>7435.10491003939</v>
       </c>
       <c r="C17" t="n">
-        <v>-862700265262260942798848</v>
+        <v>-5489328517055082391404544</v>
       </c>
       <c r="D17" t="n">
-        <v>-1319386199375163959541760</v>
+        <v>-8395203503313257614016512</v>
       </c>
       <c r="E17" t="n">
-        <v>862700265262260942798848</v>
+        <v>5489328517055082391404544</v>
       </c>
       <c r="F17" t="n">
-        <v>1319386199375163959541760</v>
+        <v>8395203503313257614016512</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -939,16 +939,16 @@
         <v>8742.66190422411</v>
       </c>
       <c r="C18" t="n">
-        <v>-20975010234192669569974272</v>
+        <v>-124821988888184088579538944</v>
       </c>
       <c r="D18" t="n">
-        <v>-32078509940336803560030208</v>
+        <v>-190898758408941574243221504</v>
       </c>
       <c r="E18" t="n">
-        <v>20975010234192669569974272</v>
+        <v>124821988888184088579538944</v>
       </c>
       <c r="F18" t="n">
-        <v>32078509940336803560030208</v>
+        <v>190898758408941574243221504</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -971,16 +971,16 @@
         <v>5496.67547181079</v>
       </c>
       <c r="C19" t="n">
-        <v>-424642954380847013343264768</v>
+        <v>-1529324571095795316857765888</v>
       </c>
       <c r="D19" t="n">
-        <v>-649435355745098040812240896</v>
+        <v>-2338900096264294309434490880</v>
       </c>
       <c r="E19" t="n">
-        <v>424642954380847013343264768</v>
+        <v>1529324571095795316857765888</v>
       </c>
       <c r="F19" t="n">
-        <v>649435355745098040812240896</v>
+        <v>2338900096264294309434490880</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1003,16 +1003,16 @@
         <v>2680.47105299223</v>
       </c>
       <c r="C20" t="n">
-        <v>-7138006667265856983200169984</v>
+        <v>-32303150285500347264501022720</v>
       </c>
       <c r="D20" t="n">
-        <v>-10916639146941113778078482432</v>
+        <v>-49403405098147808945272520704</v>
       </c>
       <c r="E20" t="n">
-        <v>7138006667265856983200169984</v>
+        <v>32303150285500347264501022720</v>
       </c>
       <c r="F20" t="n">
-        <v>10916639146941113778078482432</v>
+        <v>49403405098147808945272520704</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1035,16 +1035,16 @@
         <v>1266.94616532985</v>
       </c>
       <c r="C21" t="n">
-        <v>-52425603087332814470212747264</v>
+        <v>-353574352728357315161224118272</v>
       </c>
       <c r="D21" t="n">
-        <v>-80178040963415425197367361536</v>
+        <v>-540745308917906380652193775616</v>
       </c>
       <c r="E21" t="n">
-        <v>52425603087332814470212747264</v>
+        <v>353574352728357315161224118272</v>
       </c>
       <c r="F21" t="n">
-        <v>80178040963415425197367361536</v>
+        <v>540745308917906380652193775616</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1067,16 +1067,16 @@
         <v>1050.02711920487</v>
       </c>
       <c r="C22" t="n">
-        <v>-988455854382396748252642803712</v>
+        <v>-4017909403074713466614463856640</v>
       </c>
       <c r="D22" t="n">
-        <v>-1511712776125387923195554693120</v>
+        <v>-6144862161535238733901946945536</v>
       </c>
       <c r="E22" t="n">
-        <v>988455854382396748252642803712</v>
+        <v>4017909403074713466614463856640</v>
       </c>
       <c r="F22" t="n">
-        <v>1511712776125387923195554693120</v>
+        <v>6144862161535238733901946945536</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1099,16 +1099,16 @@
         <v>1052.80386923054</v>
       </c>
       <c r="C23" t="n">
-        <v>-27562955733332763192542101504000</v>
+        <v>-136997939091222271708683349000192</v>
       </c>
       <c r="D23" t="n">
-        <v>-42153903125893299575872993361920</v>
+        <v>-209520267302629128815881790423040</v>
       </c>
       <c r="E23" t="n">
-        <v>27562955733332763192542101504000</v>
+        <v>136997939091222271708683349000192</v>
       </c>
       <c r="F23" t="n">
-        <v>42153903125893299575872993361920</v>
+        <v>209520267302629128815881790423040</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1131,16 +1131,16 @@
         <v>1234.85395907695</v>
       </c>
       <c r="C24" t="n">
-        <v>-532061622339012667500181460090880</v>
+        <v>-2386313546032138060934772915437568</v>
       </c>
       <c r="D24" t="n">
-        <v>-813718031624630809736493536378880</v>
+        <v>-3649551630843278393733431664050176</v>
       </c>
       <c r="E24" t="n">
-        <v>532061622339012667500181460090880</v>
+        <v>2386313546032138060934772915437568</v>
       </c>
       <c r="F24" t="n">
-        <v>813718031624630809736493536378880</v>
+        <v>3649551630843278393733431664050176</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1163,16 +1163,16 @@
         <v>1719.00000194307</v>
       </c>
       <c r="C25" t="n">
-        <v>-11203962427968970682682010176061440</v>
+        <v>-57130876059410113738848106008543232</v>
       </c>
       <c r="D25" t="n">
-        <v>-17134981871468740079930964195672064</v>
+        <v>-87374134987757108132668642410102784</v>
       </c>
       <c r="E25" t="n">
-        <v>11203962427968970682682010176061440</v>
+        <v>57130876059410113738848106008543232</v>
       </c>
       <c r="F25" t="n">
-        <v>17134981871468740079930964195672064</v>
+        <v>87374134987757108132668642410102784</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1195,16 +1195,16 @@
         <v>1479.22790746234</v>
       </c>
       <c r="C26" t="n">
-        <v>-234176161366833966569066548955185152</v>
+        <v>-1048584508745817391308803784637939712</v>
       </c>
       <c r="D26" t="n">
-        <v>-358141533011034456515473797543886848</v>
+        <v>-1603671617392208728266760288456409088</v>
       </c>
       <c r="E26" t="n">
-        <v>234176161366833966569066548955185152</v>
+        <v>1048584508745817391308803784637939712</v>
       </c>
       <c r="F26" t="n">
-        <v>358141533011034456515473797543886848</v>
+        <v>1603671617392208728266760288456409088</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1227,16 +1227,16 @@
         <v>1224.13104024149</v>
       </c>
       <c r="C27" t="n">
-        <v>-2620882999290550695216358470893699072</v>
+        <v>-19357758110832219550974321845807874048</v>
       </c>
       <c r="D27" t="n">
-        <v>-4008294651897111873426123934926897152</v>
+        <v>-29605136257272863568566268104036843520</v>
       </c>
       <c r="E27" t="n">
-        <v>2620882999290550695216358470893699072</v>
+        <v>19357758110832219550974321845807874048</v>
       </c>
       <c r="F27" t="n">
-        <v>4008294651897111873426123934926897152</v>
+        <v>29605136257272863568566268104036843520</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1259,16 +1259,16 @@
         <v>3889.31289677108</v>
       </c>
       <c r="C28" t="n">
-        <v>-200531803909201248900071136048279715840</v>
+        <v>-1146107281769268341857547160259439624192</v>
       </c>
       <c r="D28" t="n">
-        <v>-306686928551221309318918410728357494784</v>
+        <v>-1752819827996759643653796736938169860096</v>
       </c>
       <c r="E28" t="n">
-        <v>200531803909201248900071136048279715840</v>
+        <v>1146107281769268341857547160259439624192</v>
       </c>
       <c r="F28" t="n">
-        <v>306686928551221309318918410728357494784</v>
+        <v>1752819827996759643653796736938169860096</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1291,16 +1291,16 @@
         <v>7436.15147398185</v>
       </c>
       <c r="C29" t="n">
-        <v>-8558709943707093971313801351394490318848</v>
+        <v>-52282049276274724692446458645684582088704</v>
       </c>
       <c r="D29" t="n">
-        <v>-13089417308512458196314425738621184114688</v>
+        <v>-79958494355161887885914526564228494524416</v>
       </c>
       <c r="E29" t="n">
-        <v>8558709943707093971313801351394490318848</v>
+        <v>52282049276274724692446458645684582088704</v>
       </c>
       <c r="F29" t="n">
-        <v>13089417308512458196314425738621184114688</v>
+        <v>79958494355161887885914526564228494524416</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1323,16 +1323,16 @@
         <v>8743.81567810924</v>
       </c>
       <c r="C30" t="n">
-        <v>-393342647564438154638076551260111982559232</v>
+        <v>-1033876165359857206331705123658891123490816</v>
       </c>
       <c r="D30" t="n">
-        <v>-601565667380943113407800480046966976282624</v>
+        <v>-1581177147342164676661396262083371070390272</v>
       </c>
       <c r="E30" t="n">
-        <v>393342647564438154638076551260111982559232</v>
+        <v>1033876165359857206331705123658891123490816</v>
       </c>
       <c r="F30" t="n">
-        <v>601565667380943113407800480046966976282624</v>
+        <v>1581177147342164676661396262083371070390272</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1355,16 +1355,16 @@
         <v>5497.35574307225</v>
       </c>
       <c r="C31" t="n">
-        <v>-6309496878679633593219894786532553319776256</v>
+        <v>-11698204840248520313515159914879011350642688</v>
       </c>
       <c r="D31" t="n">
-        <v>-9649542769295293481472955247564325725929472</v>
+        <v>-17890860412562373578204343706268275939737600</v>
       </c>
       <c r="E31" t="n">
-        <v>6309496878679633593219894786532553319776256</v>
+        <v>11698204840248520313515159914879011350642688</v>
       </c>
       <c r="F31" t="n">
-        <v>9649542769295293481472955247564325725929472</v>
+        <v>17890860412562373578204343706268275939737600</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1387,16 +1387,16 @@
         <v>2680.7822327782</v>
       </c>
       <c r="C32" t="n">
-        <v>-87666601682208689915244534676633811238780928</v>
+        <v>-277729700418948645317832872711684449261060096</v>
       </c>
       <c r="D32" t="n">
-        <v>-134074497323196250975234256004662965978529792</v>
+        <v>-424750922938413609394273653664246794331095040</v>
       </c>
       <c r="E32" t="n">
-        <v>87666601682208689915244534676633811238780928</v>
+        <v>277729700418948645317832872711684449261060096</v>
       </c>
       <c r="F32" t="n">
-        <v>134074497323196250975234256004662965978529792</v>
+        <v>424750922938413609394273653664246794331095040</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1419,16 +1419,16 @@
         <v>1267.08417095458</v>
       </c>
       <c r="C33" t="n">
-        <v>-517167900732229658482285040764575974674137088</v>
+        <v>-3191918722559167487707734810493427100164292608</v>
       </c>
       <c r="D33" t="n">
-        <v>-790940050051446219870265869055418067037716480</v>
+        <v>-4881618427219923768524137680087983981022150656</v>
       </c>
       <c r="E33" t="n">
-        <v>517167900732229658482285040764575974674137088</v>
+        <v>3191918722559167487707734810493427100164292608</v>
       </c>
       <c r="F33" t="n">
-        <v>790940050051446219870265869055418067037716480</v>
+        <v>4881618427219923768524137680087983981022150656</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1451,16 +1451,16 @@
         <v>1050.13446991749</v>
       </c>
       <c r="C34" t="n">
-        <v>-7743259123772115847576811146718452721888788480</v>
+        <v>-18037026230082435468938312650357667880673214464</v>
       </c>
       <c r="D34" t="n">
-        <v>-11842292899938989201106358973940494154682335232</v>
+        <v>-27585251151515612046039434818291865685866840064</v>
       </c>
       <c r="E34" t="n">
-        <v>7743259123772115847576811146718452721888788480</v>
+        <v>18037026230082435468938312650357667880673214464</v>
       </c>
       <c r="F34" t="n">
-        <v>11842292899938989201106358973940494154682335232</v>
+        <v>27585251151515612046039434818291865685866840064</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1483,16 +1483,16 @@
         <v>1052.90492305294</v>
       </c>
       <c r="C35" t="n">
-        <v>-310546570326517359644937741118012792164044505088</v>
+        <v>-368765666386345281362491456292972679673344425984</v>
       </c>
       <c r="D35" t="n">
-        <v>-474939994399488957277623856876249114956724699136</v>
+        <v>-563978418258188743131473507170357880323187933184</v>
       </c>
       <c r="E35" t="n">
-        <v>310546570326517359644937741118012792164044505088</v>
+        <v>368765666386345281362491456292972679673344425984</v>
       </c>
       <c r="F35" t="n">
-        <v>474939994399488957277623856876249114956724699136</v>
+        <v>563978418258188743131473507170357880323187933184</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1515,16 +1515,16 @@
         <v>1234.96527692942</v>
       </c>
       <c r="C36" t="n">
-        <v>-4544657303406633285238672205999068951134162911232</v>
+        <v>-4481904880758431803157922944509560312200836415488</v>
       </c>
       <c r="D36" t="n">
-        <v>-6950453556637573462988585911968555509034409525248</v>
+        <v>-6854482008055489432877201206146760676508988080128</v>
       </c>
       <c r="E36" t="n">
-        <v>4544657303406633285238672205999068951134162911232</v>
+        <v>4481904880758431803157922944509560312200836415488</v>
       </c>
       <c r="F36" t="n">
-        <v>6950453556637573462988585911968555509034409525248</v>
+        <v>6854482008055489432877201206146760676508988080128</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1547,16 +1547,16 @@
         <v>1719.14558825428</v>
       </c>
       <c r="C37" t="n">
-        <v>-93947364976113322209768525644148952919728600383488</v>
+        <v>-96880389380633898993885171956198894300505623756800</v>
       </c>
       <c r="D37" t="n">
-        <v>-143680095866742178608484941848144209496775021559808</v>
+        <v>-148165769602542625929629307604460495691021583122432</v>
       </c>
       <c r="E37" t="n">
-        <v>93947364976113322209768525644148952919728600383488</v>
+        <v>96880389380633898993885171956198894300505623756800</v>
       </c>
       <c r="F37" t="n">
-        <v>143680095866742178608484941848144209496775021559808</v>
+        <v>148165769602542625929629307604460495691021583122432</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1579,16 +1579,16 @@
         <v>1479.34565158132</v>
       </c>
       <c r="C38" t="n">
-        <v>-1499762154375237442577212272201636605433806709587968</v>
+        <v>-1601285312758936176511197599935348800963710908628992</v>
       </c>
       <c r="D38" t="n">
-        <v>-2293688281440724503160744785197824572733948849815552</v>
+        <v>-2448954553496072894737456059340163883907023191932928</v>
       </c>
       <c r="E38" t="n">
-        <v>1499762154375237442577212272201636605433806709587968</v>
+        <v>1601285312758936176511197599935348800963710908628992</v>
       </c>
       <c r="F38" t="n">
-        <v>2293688281440724503160744785197824572733948849815552</v>
+        <v>2448954553496072894737456059340163883907023191932928</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1611,16 +1611,16 @@
         <v>1224.22265336492</v>
       </c>
       <c r="C39" t="n">
-        <v>-16361774886888685409091797626859018962977209416941568</v>
+        <v>-41782993535287784556679816144739860600555390860525568</v>
       </c>
       <c r="D39" t="n">
-        <v>-25023175316262902946088491853402988871513022408949760</v>
+        <v>-63901574230166149901951840652023789690765710752481280</v>
       </c>
       <c r="E39" t="n">
-        <v>16361774886888685409091797626859018962977209416941568</v>
+        <v>41782993535287784556679816144739860600555390860525568</v>
       </c>
       <c r="F39" t="n">
-        <v>25023175316262902946088491853402988871513022408949760</v>
+        <v>63901574230166149901951840652023789690765710752481280</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1643,16 +1643,16 @@
         <v>3889.58668034087</v>
       </c>
       <c r="C40" t="n">
-        <v>-882563671171032100842537072588089647238960943367979008</v>
+        <v>-1482643497633052488193810494155792890610826686771494912</v>
       </c>
       <c r="D40" t="n">
-        <v>-1349764657205651208516730974802955122017291388705570816</v>
+        <v>-2267507555217563796133828466548490994333300525929332736</v>
       </c>
       <c r="E40" t="n">
-        <v>882563671171032100842537072588089647238960943367979008</v>
+        <v>1482643497633052488193810494155792890610826686771494912</v>
       </c>
       <c r="F40" t="n">
-        <v>1349764657205651208516730974802955122017291388705570816</v>
+        <v>2267507555217563796133828466548490994333300525929332736</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1675,16 +1675,16 @@
         <v>7436.6440536482</v>
       </c>
       <c r="C41" t="n">
-        <v>-31479551429164900795429867432561335809247469313846149120</v>
+        <v>-50689358536129546593560600304232593313551549513531916288</v>
       </c>
       <c r="D41" t="n">
-        <v>-48143819343250872765267809002263189593895981749467348992</v>
+        <v>-77522684066195136801942707308756134295229240023617372160</v>
       </c>
       <c r="E41" t="n">
-        <v>31479551429164900795429867432561335809247469313846149120</v>
+        <v>50689358536129546593560600304232593313551549513531916288</v>
       </c>
       <c r="F41" t="n">
-        <v>48143819343250872765267809002263189593895981749467348992</v>
+        <v>77522684066195136801942707308756134295229240023617372160</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1707,16 +1707,16 @@
         <v>8744.36096164609</v>
       </c>
       <c r="C42" t="n">
-        <v>-1466969719376298819291191389256373310317424779486730125312</v>
+        <v>-1432493806731103362498026559436188297628177385134244233216</v>
       </c>
       <c r="D42" t="n">
-        <v>-2243536579947559901617748243686358340327932312819817512960</v>
+        <v>-2190810221574288429773603628144654148140218814929808916480</v>
       </c>
       <c r="E42" t="n">
-        <v>1466969719376298819291191389256373310317424779486730125312</v>
+        <v>1432493806731103362498026559436188297628177385134244233216</v>
       </c>
       <c r="F42" t="n">
-        <v>2243536579947559901617748243686358340327932312819817512960</v>
+        <v>2190810221574288429773603628144654148140218814929808916480</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1739,16 +1739,16 @@
         <v>5497.67865083359</v>
       </c>
       <c r="C43" t="n">
-        <v>-13794887611846219645501636587071706761283130888269634469888</v>
+        <v>-25563257446244653642924132936313657002653906054199419863040</v>
       </c>
       <c r="D43" t="n">
-        <v>-21097459998425151142091732042958744314160010478095517614080</v>
+        <v>-39095628509394670630393388471437061789347958791017892675584</v>
       </c>
       <c r="E43" t="n">
-        <v>13794887611846219645501636587071706761283130888269634469888</v>
+        <v>25563257446244653642924132936313657002653906054199419863040</v>
       </c>
       <c r="F43" t="n">
-        <v>21097459998425151142091732042958744314160010478095517614080</v>
+        <v>39095628509394670630393388471437061789347958791017892675584</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1771,16 +1771,16 @@
         <v>2680.93062482737</v>
       </c>
       <c r="C44" t="n">
-        <v>-111482055443168471952591245261766585215961684589828091412480</v>
+        <v>-1087730794629963441774495820028635379837201772241480102969344</v>
       </c>
       <c r="D44" t="n">
-        <v>-170497090765329305767788574918877644107366904099640979750912</v>
+        <v>-1663540695253956678857235322320247051699664548945542718160896</v>
       </c>
       <c r="E44" t="n">
-        <v>111482055443168471952591245261766585215961684589828091412480</v>
+        <v>1087730794629963441774495820028635379837201772241480102969344</v>
       </c>
       <c r="F44" t="n">
-        <v>170497090765329305767788574918877644107366904099640979750912</v>
+        <v>1663540695253956678857235322320247051699664548945542718160896</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1803,16 +1803,16 @@
         <v>1267.15030295537</v>
       </c>
       <c r="C45" t="n">
-        <v>-666578104908784837162026587973930436273228851384977220173824</v>
+        <v>-12389509213687397510076411146145128780618049309327138398142464</v>
       </c>
       <c r="D45" t="n">
-        <v>-1019443238672171935843572396306212564350741001362049167523840</v>
+        <v>-18948119215659729301505728578378537649879126749671792136159232</v>
       </c>
       <c r="E45" t="n">
-        <v>666578104908784837162026587973930436273228851384977220173824</v>
+        <v>12389509213687397510076411146145128780618049309327138398142464</v>
       </c>
       <c r="F45" t="n">
-        <v>1019443238672171935843572396306212564350741001362049167523840</v>
+        <v>18948119215659729301505728578378537649879126749671792136159232</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1835,16 +1835,16 @@
         <v>1050.18617730981</v>
       </c>
       <c r="C46" t="n">
-        <v>-5967896508716492346389068003898452173642162318830222176157696</v>
+        <v>-83306893932862578749657259340371098311654412203233650749210624</v>
       </c>
       <c r="D46" t="n">
-        <v>-9127110086729923680006230786734478182830103647913403251425280</v>
+        <v>-127406899700460398152426044086871371190689675180193480309735424</v>
       </c>
       <c r="E46" t="n">
-        <v>5967896508716492346389068003898452173642162318830222176157696</v>
+        <v>83306893932862578749657259340371098311654412203233650749210624</v>
       </c>
       <c r="F46" t="n">
-        <v>9127110086729923680006230786734478182830103647913403251425280</v>
+        <v>127406899700460398152426044086871371190689675180193480309735424</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1867,16 +1867,16 @@
         <v>1052.95386203309</v>
       </c>
       <c r="C47" t="n">
-        <v>-154391220234620332865112006135319724028779277033637041198333952</v>
+        <v>-1894670925495805350155654366286635918051416098203214867471532032</v>
       </c>
       <c r="D47" t="n">
-        <v>-236120995303420184097159865455380508130581875889482141297278976</v>
+        <v>-2897649128108932557598919671822789924929383511046180239667363840</v>
       </c>
       <c r="E47" t="n">
-        <v>154391220234620332865112006135319724028779277033637041198333952</v>
+        <v>1894670925495805350155654366286635918051416098203214867471532032</v>
       </c>
       <c r="F47" t="n">
-        <v>236120995303420184097159865455380508130581875889482141297278976</v>
+        <v>2897649128108932557598919671822789924929383511046180239667363840</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1899,16 +1899,16 @@
         <v>1235.01949541984</v>
       </c>
       <c r="C48" t="n">
-        <v>-2443808758821103394188815791713069940898670606858712796920545280</v>
+        <v>-20130827335528413873721560689487416899218084189412182121062072320</v>
       </c>
       <c r="D48" t="n">
-        <v>-3737482970774926898660733155678212973301638892983133093010341888</v>
+        <v>-30787443609312152048140494929235004012145702262398652336666836992</v>
       </c>
       <c r="E48" t="n">
-        <v>2443808758821103394188815791713069940898670606858712796920545280</v>
+        <v>20130827335528413873721560689487416899218084189412182121062072320</v>
       </c>
       <c r="F48" t="n">
-        <v>3737482970774926898660733155678212973301638892983133093010341888</v>
+        <v>30787443609312152048140494929235004012145702262398652336666836992</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1931,16 +1931,16 @@
         <v>1719.21692507452</v>
       </c>
       <c r="C49" t="n">
-        <v>-26937301385892755256202574214273587769236699184592682297199689728</v>
+        <v>-626665513567259037950510589906884298349798023636771981177684754432</v>
       </c>
       <c r="D49" t="n">
-        <v>-41197047373286718006067036254492025977426796337241544463256387584</v>
+        <v>-958402197747835046099560385112131546411172122276932336761561939968</v>
       </c>
       <c r="E49" t="n">
-        <v>26937301385892755256202574214273587769236699184592682297199689728</v>
+        <v>626665513567259037950510589906884298349798023636771981177684754432</v>
       </c>
       <c r="F49" t="n">
-        <v>41197047373286718006067036254492025977426796337241544463256387584</v>
+        <v>958402197747835046099560385112131546411172122276932336761561939968</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>

--- a/outcome/appendix/data/forecast/Rubella.xlsx
+++ b/outcome/appendix/data/forecast/Rubella.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1478.41575993364</v>
+        <v>1757.61937490894</v>
       </c>
       <c r="C2" t="n">
-        <v>971.206655079578</v>
+        <v>-1956.01397327078</v>
       </c>
       <c r="D2" t="n">
-        <v>702.706373848726</v>
+        <v>-3660.86386173361</v>
       </c>
       <c r="E2" t="n">
-        <v>1985.62486478771</v>
+        <v>5265.00429406739</v>
       </c>
       <c r="F2" t="n">
-        <v>2254.12514601856</v>
+        <v>7654.43008433268</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>1199</v>
       </c>
       <c r="I2" t="n">
-        <v>279.415759933643</v>
+        <v>558.619374908937</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1223.50203970203</v>
+        <v>1529.62293079616</v>
       </c>
       <c r="C3" t="n">
-        <v>-13336.8864799202</v>
+        <v>-3724.59423014672</v>
       </c>
       <c r="D3" t="n">
-        <v>-21044.6905688746</v>
+        <v>-6167.61683727016</v>
       </c>
       <c r="E3" t="n">
-        <v>15783.8905593243</v>
+        <v>7119.36601505452</v>
       </c>
       <c r="F3" t="n">
-        <v>23491.6946482786</v>
+        <v>10561.5826571234</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>306</v>
       </c>
       <c r="I3" t="n">
-        <v>917.502039702031</v>
+        <v>1223.62293079616</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3887.44231967008</v>
+        <v>4219.87380163049</v>
       </c>
       <c r="C4" t="n">
-        <v>-1460247.72458406</v>
+        <v>-2347.16428280571</v>
       </c>
       <c r="D4" t="n">
-        <v>-2235314.063716</v>
+        <v>-5245.91074670646</v>
       </c>
       <c r="E4" t="n">
-        <v>1468022.6092234</v>
+        <v>10630.5605809725</v>
       </c>
       <c r="F4" t="n">
-        <v>2243088.94835534</v>
+        <v>17307.3318913198</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>197</v>
       </c>
       <c r="I4" t="n">
-        <v>3690.44231967008</v>
+        <v>4022.87380163049</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>7432.80343405491</v>
+        <v>8242.31523657495</v>
       </c>
       <c r="C5" t="n">
-        <v>-81928863.7603683</v>
+        <v>608.042454069269</v>
       </c>
       <c r="D5" t="n">
-        <v>-125303319.107982</v>
+        <v>-2547.5358764376</v>
       </c>
       <c r="E5" t="n">
-        <v>81943729.3672365</v>
+        <v>16570.2154270629</v>
       </c>
       <c r="F5" t="n">
-        <v>125318184.71485</v>
+        <v>21925.9315936659</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>116</v>
       </c>
       <c r="I5" t="n">
-        <v>7316.80343405491</v>
+        <v>8126.31523657495</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>8740.12974846011</v>
+        <v>9995.09895902226</v>
       </c>
       <c r="C6" t="n">
-        <v>-2365572445.90792</v>
+        <v>1484.43285417273</v>
       </c>
       <c r="D6" t="n">
-        <v>-3617835482.29067</v>
+        <v>-2681.62190291502</v>
       </c>
       <c r="E6" t="n">
-        <v>2365589926.16742</v>
+        <v>18986.6517049588</v>
       </c>
       <c r="F6" t="n">
-        <v>3617852962.55016</v>
+        <v>24622.3809994177</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>90</v>
       </c>
       <c r="I6" t="n">
-        <v>8650.12974846011</v>
+        <v>9905.09895902226</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5495.18568337417</v>
+        <v>6729.48971340593</v>
       </c>
       <c r="C7" t="n">
-        <v>-26371702155.5513</v>
+        <v>-2673.46576605379</v>
       </c>
       <c r="D7" t="n">
-        <v>-40332040905.3811</v>
+        <v>-6369.56280650906</v>
       </c>
       <c r="E7" t="n">
-        <v>26371713145.9226</v>
+        <v>16576.1173741416</v>
       </c>
       <c r="F7" t="n">
-        <v>40332051895.7524</v>
+        <v>21346.0532703653</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>114</v>
       </c>
       <c r="I7" t="n">
-        <v>5381.18568337417</v>
+        <v>6615.48971340593</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2679.79111849818</v>
+        <v>3337.65994926264</v>
       </c>
       <c r="C8" t="n">
-        <v>-637784976035.169</v>
+        <v>-6555.93611642581</v>
       </c>
       <c r="D8" t="n">
-        <v>-975407949501.017</v>
+        <v>-12132.1758050336</v>
       </c>
       <c r="E8" t="n">
-        <v>637784981394.752</v>
+        <v>13610.1180479046</v>
       </c>
       <c r="F8" t="n">
-        <v>975407954860.599</v>
+        <v>19466.1685097138</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>96</v>
       </c>
       <c r="I8" t="n">
-        <v>2583.79111849818</v>
+        <v>3241.65994926264</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1266.64534806666</v>
+        <v>1931.13760272824</v>
       </c>
       <c r="C9" t="n">
-        <v>-11079613134413.1</v>
+        <v>-8915.39262614619</v>
       </c>
       <c r="D9" t="n">
-        <v>-16944806038856.4</v>
+        <v>-14811.2525918586</v>
       </c>
       <c r="E9" t="n">
-        <v>11079613136946.4</v>
+        <v>11739.731109144</v>
       </c>
       <c r="F9" t="n">
-        <v>16944806041389.7</v>
+        <v>19015.3289141651</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>96</v>
       </c>
       <c r="I9" t="n">
-        <v>1170.64534806666</v>
+        <v>1835.13760272824</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1049.79372252444</v>
+        <v>2028.47613671939</v>
       </c>
       <c r="C10" t="n">
-        <v>-236037741454651</v>
+        <v>-10019.8459384874</v>
       </c>
       <c r="D10" t="n">
-        <v>-360988574070690</v>
+        <v>-15702.0182821411</v>
       </c>
       <c r="E10" t="n">
-        <v>236037741456751</v>
+        <v>12876.8820939737</v>
       </c>
       <c r="F10" t="n">
-        <v>360988574072789</v>
+        <v>18776.1083046006</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>102</v>
       </c>
       <c r="I10" t="n">
-        <v>947.79372252444</v>
+        <v>1926.47613671939</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1052.58476231647</v>
+        <v>2094.54983451569</v>
       </c>
       <c r="C11" t="n">
-        <v>-4569512362517868</v>
+        <v>-10527.5612482826</v>
       </c>
       <c r="D11" t="n">
-        <v>-6988466089259816</v>
+        <v>-15225.1490316497</v>
       </c>
       <c r="E11" t="n">
-        <v>4569512362519974</v>
+        <v>13624.2099426293</v>
       </c>
       <c r="F11" t="n">
-        <v>6988466089261922</v>
+        <v>20062.8278096667</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>157</v>
       </c>
       <c r="I11" t="n">
-        <v>895.584762316473</v>
+        <v>1937.54983451569</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1234.61329694903</v>
+        <v>2267.84324239667</v>
       </c>
       <c r="C12" t="n">
-        <v>-96465418974375024</v>
+        <v>-10958.9567001162</v>
       </c>
       <c r="D12" t="n">
-        <v>-147531127132599616</v>
+        <v>-18692.7601317612</v>
       </c>
       <c r="E12" t="n">
-        <v>96465418974377488</v>
+        <v>14411.8580285193</v>
       </c>
       <c r="F12" t="n">
-        <v>147531127132602112</v>
+        <v>20575.2845633994</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>276</v>
       </c>
       <c r="I12" t="n">
-        <v>958.613296949033</v>
+        <v>1991.84324239667</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1718.68622203544</v>
+        <v>1958.38434351101</v>
       </c>
       <c r="C13" t="n">
-        <v>-3755270558896961536</v>
+        <v>-11381.4074830172</v>
       </c>
       <c r="D13" t="n">
-        <v>-5743190711576164352</v>
+        <v>-18818.0498509315</v>
       </c>
       <c r="E13" t="n">
-        <v>3755270558896964608</v>
+        <v>14477.3535248476</v>
       </c>
       <c r="F13" t="n">
-        <v>5743190711576168448</v>
+        <v>19829.513005815</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>104</v>
       </c>
       <c r="I13" t="n">
-        <v>1614.68622203544</v>
+        <v>1854.38434351101</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1478.97496387825</v>
+        <v>1567.63359674508</v>
       </c>
       <c r="C14" t="n">
-        <v>-87694635732330725376</v>
+        <v>-11671.1760219579</v>
       </c>
       <c r="D14" t="n">
-        <v>-134117371703016161280</v>
+        <v>-19539.570952707</v>
       </c>
       <c r="E14" t="n">
-        <v>87694635732330725376</v>
+        <v>14382.2497099652</v>
       </c>
       <c r="F14" t="n">
-        <v>134117371703016161280</v>
+        <v>20836.1288261903</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>127</v>
       </c>
       <c r="I14" t="n">
-        <v>1351.97496387825</v>
+        <v>1440.63359674508</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1223.93491402663</v>
+        <v>1685.79398595889</v>
       </c>
       <c r="C15" t="n">
-        <v>-1664622866772268941312</v>
+        <v>-12553.7768975562</v>
       </c>
       <c r="D15" t="n">
-        <v>-2545820983277412941824</v>
+        <v>-21138.4353842875</v>
       </c>
       <c r="E15" t="n">
-        <v>1664622866772268941312</v>
+        <v>15917.0482551189</v>
       </c>
       <c r="F15" t="n">
-        <v>2545820983277412941824</v>
+        <v>21370.0564913179</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>46</v>
       </c>
       <c r="I15" t="n">
-        <v>1177.93491402663</v>
+        <v>1639.79398595889</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3888.72892963638</v>
+        <v>4472.72097718721</v>
       </c>
       <c r="C16" t="n">
-        <v>-110498679114815116410880</v>
+        <v>-10178.0154015954</v>
       </c>
       <c r="D16" t="n">
-        <v>-168993146453886219845632</v>
+        <v>-20163.482919269</v>
       </c>
       <c r="E16" t="n">
-        <v>110498679114815116410880</v>
+        <v>17996.6201987715</v>
       </c>
       <c r="F16" t="n">
-        <v>168993146453886219845632</v>
+        <v>23195.8866545003</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>82</v>
       </c>
       <c r="I16" t="n">
-        <v>3806.72892963638</v>
+        <v>4390.72097718721</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>7435.10491003939</v>
+        <v>8009.40459671138</v>
       </c>
       <c r="C17" t="n">
-        <v>-5489328517055082391404544</v>
+        <v>-5655.63869106659</v>
       </c>
       <c r="D17" t="n">
-        <v>-8395203503313257614016512</v>
+        <v>-18708.6487172951</v>
       </c>
       <c r="E17" t="n">
-        <v>5489328517055082391404544</v>
+        <v>22016.5390821603</v>
       </c>
       <c r="F17" t="n">
-        <v>8395203503313257614016512</v>
+        <v>27710.4240246013</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>107</v>
       </c>
       <c r="I17" t="n">
-        <v>7328.10491003939</v>
+        <v>7902.40459671138</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>8742.66190422411</v>
+        <v>9792.57152143819</v>
       </c>
       <c r="C18" t="n">
-        <v>-124821988888184088579538944</v>
+        <v>-4194.26100308667</v>
       </c>
       <c r="D18" t="n">
-        <v>-190898758408941574243221504</v>
+        <v>-16066.0267465128</v>
       </c>
       <c r="E18" t="n">
-        <v>124821988888184088579538944</v>
+        <v>24289.0517686144</v>
       </c>
       <c r="F18" t="n">
-        <v>190898758408941574243221504</v>
+        <v>30309.9846339091</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>187</v>
       </c>
       <c r="I18" t="n">
-        <v>8555.66190422411</v>
+        <v>9605.57152143819</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>5496.67547181079</v>
+        <v>6201.76992256462</v>
       </c>
       <c r="C19" t="n">
-        <v>-1529324571095795316857765888</v>
+        <v>-9162.70831306062</v>
       </c>
       <c r="D19" t="n">
-        <v>-2338900096264294309434490880</v>
+        <v>-18774.2891426623</v>
       </c>
       <c r="E19" t="n">
-        <v>1529324571095795316857765888</v>
+        <v>21389.8636761308</v>
       </c>
       <c r="F19" t="n">
-        <v>2338900096264294309434490880</v>
+        <v>25895.5820197206</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>115</v>
       </c>
       <c r="I19" t="n">
-        <v>5381.67547181079</v>
+        <v>6086.76992256462</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2680.47105299223</v>
+        <v>2795.59731539901</v>
       </c>
       <c r="C20" t="n">
-        <v>-32303150285500347264501022720</v>
+        <v>-12422.7969940432</v>
       </c>
       <c r="D20" t="n">
-        <v>-49403405098147808945272520704</v>
+        <v>-24018.1707433682</v>
       </c>
       <c r="E20" t="n">
-        <v>32303150285500347264501022720</v>
+        <v>18097.6485354635</v>
       </c>
       <c r="F20" t="n">
-        <v>49403405098147808945272520704</v>
+        <v>26199.1281104166</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>102</v>
       </c>
       <c r="I20" t="n">
-        <v>2578.47105299223</v>
+        <v>2693.59731539901</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1266.94616532985</v>
+        <v>1824.33500475651</v>
       </c>
       <c r="C21" t="n">
-        <v>-353574352728357315161224118272</v>
+        <v>-13787.7022227533</v>
       </c>
       <c r="D21" t="n">
-        <v>-540745308917906380652193775616</v>
+        <v>-25398.7551590533</v>
       </c>
       <c r="E21" t="n">
-        <v>353574352728357315161224118272</v>
+        <v>17412.2954338436</v>
       </c>
       <c r="F21" t="n">
-        <v>540745308917906380652193775616</v>
+        <v>25570.9441003403</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>68</v>
       </c>
       <c r="I21" t="n">
-        <v>1198.94616532985</v>
+        <v>1756.33500475651</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1050.02711920487</v>
+        <v>1443.61123088489</v>
       </c>
       <c r="C22" t="n">
-        <v>-4017909403074713466614463856640</v>
+        <v>-14050.1784020168</v>
       </c>
       <c r="D22" t="n">
-        <v>-6144862161535238733901946945536</v>
+        <v>-26383.1008356838</v>
       </c>
       <c r="E22" t="n">
-        <v>4017909403074713466614463856640</v>
+        <v>17825.9589065177</v>
       </c>
       <c r="F22" t="n">
-        <v>6144862161535238733901946945536</v>
+        <v>26065.7696384104</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>90</v>
       </c>
       <c r="I22" t="n">
-        <v>960.027119204869</v>
+        <v>1353.61123088489</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1052.80386923054</v>
+        <v>1479.166170388</v>
       </c>
       <c r="C23" t="n">
-        <v>-136997939091222271708683349000192</v>
+        <v>-13771.069977903</v>
       </c>
       <c r="D23" t="n">
-        <v>-209520267302629128815881790423040</v>
+        <v>-26419.9322968412</v>
       </c>
       <c r="E23" t="n">
-        <v>136997939091222271708683349000192</v>
+        <v>17622.6131059839</v>
       </c>
       <c r="F23" t="n">
-        <v>209520267302629128815881790423040</v>
+        <v>27566.6292559424</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>101</v>
       </c>
       <c r="I23" t="n">
-        <v>951.803869230543</v>
+        <v>1378.166170388</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1234.85395907695</v>
+        <v>1665.82575224694</v>
       </c>
       <c r="C24" t="n">
-        <v>-2386313546032138060934772915437568</v>
+        <v>-14991.2332093165</v>
       </c>
       <c r="D24" t="n">
-        <v>-3649551630843278393733431664050176</v>
+        <v>-27923.9909034002</v>
       </c>
       <c r="E24" t="n">
-        <v>2386313546032138060934772915437568</v>
+        <v>19098.8675232682</v>
       </c>
       <c r="F24" t="n">
-        <v>3649551630843278393733431664050176</v>
+        <v>27397.2058543231</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>119</v>
       </c>
       <c r="I24" t="n">
-        <v>1115.85395907695</v>
+        <v>1546.82575224694</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1719.00000194307</v>
+        <v>2143.36645179415</v>
       </c>
       <c r="C25" t="n">
-        <v>-57130876059410113738848106008543232</v>
+        <v>-16645.4044079031</v>
       </c>
       <c r="D25" t="n">
-        <v>-87374134987757108132668642410102784</v>
+        <v>-26495.5364449249</v>
       </c>
       <c r="E25" t="n">
-        <v>57130876059410113738848106008543232</v>
+        <v>19921.7148976468</v>
       </c>
       <c r="F25" t="n">
-        <v>87374134987757108132668642410102784</v>
+        <v>30702.962137536</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>158</v>
       </c>
       <c r="I25" t="n">
-        <v>1561.00000194307</v>
+        <v>1985.36645179415</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1479.22790746234</v>
+        <v>1982.00909490836</v>
       </c>
       <c r="C26" t="n">
-        <v>-1048584508745817391308803784637939712</v>
+        <v>-16957.2379124824</v>
       </c>
       <c r="D26" t="n">
-        <v>-1603671617392208728266760288456409088</v>
+        <v>-28296.8506031862</v>
       </c>
       <c r="E26" t="n">
-        <v>1048584508745817391308803784637939712</v>
+        <v>20468.0574852663</v>
       </c>
       <c r="F26" t="n">
-        <v>1603671617392208728266760288456409088</v>
+        <v>29430.15315578</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>70</v>
       </c>
       <c r="I26" t="n">
-        <v>1409.22790746234</v>
+        <v>1912.00909490836</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1224.13104024149</v>
+        <v>1491.23788449488</v>
       </c>
       <c r="C27" t="n">
-        <v>-19357758110832219550974321845807874048</v>
+        <v>-18713.4683474171</v>
       </c>
       <c r="D27" t="n">
-        <v>-29605136257272863568566268104036843520</v>
+        <v>-27688.9581067476</v>
       </c>
       <c r="E27" t="n">
-        <v>19357758110832219550974321845807874048</v>
+        <v>21332.5973732481</v>
       </c>
       <c r="F27" t="n">
-        <v>29605136257272863568566268104036843520</v>
+        <v>29764.0737024933</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>55</v>
       </c>
       <c r="I27" t="n">
-        <v>1169.13104024149</v>
+        <v>1436.23788449488</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3889.31289677108</v>
+        <v>4256.79039903716</v>
       </c>
       <c r="C28" t="n">
-        <v>-1146107281769268341857547160259439624192</v>
+        <v>-16502.0886709123</v>
       </c>
       <c r="D28" t="n">
-        <v>-1752819827996759643653796736938169860096</v>
+        <v>-26927.2111575528</v>
       </c>
       <c r="E28" t="n">
-        <v>1146107281769268341857547160259439624192</v>
+        <v>24368.8434530281</v>
       </c>
       <c r="F28" t="n">
-        <v>1752819827996759643653796736938169860096</v>
+        <v>33183.4756291259</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>98</v>
       </c>
       <c r="I28" t="n">
-        <v>3791.31289677108</v>
+        <v>4158.79039903716</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>7436.15147398185</v>
+        <v>8359.91198406962</v>
       </c>
       <c r="C29" t="n">
-        <v>-52282049276274724692446458645684582088704</v>
+        <v>-13239.1632250918</v>
       </c>
       <c r="D29" t="n">
-        <v>-79958494355161887885914526564228494524416</v>
+        <v>-23039.3639987299</v>
       </c>
       <c r="E29" t="n">
-        <v>52282049276274724692446458645684582088704</v>
+        <v>29566.2102288643</v>
       </c>
       <c r="F29" t="n">
-        <v>79958494355161887885914526564228494524416</v>
+        <v>35655.3774756301</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>97</v>
       </c>
       <c r="I29" t="n">
-        <v>7339.15147398185</v>
+        <v>8262.91198406962</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>8743.81567810924</v>
+        <v>10082.2786555685</v>
       </c>
       <c r="C30" t="n">
-        <v>-1033876165359857206331705123658891123490816</v>
+        <v>-11883.15336953</v>
       </c>
       <c r="D30" t="n">
-        <v>-1581177147342164676661396262083371070390272</v>
+        <v>-20708.642998162</v>
       </c>
       <c r="E30" t="n">
-        <v>1033876165359857206331705123658891123490816</v>
+        <v>31601.6351311627</v>
       </c>
       <c r="F30" t="n">
-        <v>1581177147342164676661396262083371070390272</v>
+        <v>40110.4581820683</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>155</v>
       </c>
       <c r="I30" t="n">
-        <v>8588.81567810924</v>
+        <v>9927.27865556846</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5497.35574307225</v>
+        <v>6630.22878026237</v>
       </c>
       <c r="C31" t="n">
-        <v>-11698204840248520313515159914879011350642688</v>
+        <v>-14998.3761769749</v>
       </c>
       <c r="D31" t="n">
-        <v>-17890860412562373578204343706268275939737600</v>
+        <v>-24611.6329969319</v>
       </c>
       <c r="E31" t="n">
-        <v>11698204840248520313515159914879011350642688</v>
+        <v>27593.9880026595</v>
       </c>
       <c r="F31" t="n">
-        <v>17890860412562373578204343706268275939737600</v>
+        <v>36169.1773901505</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>167</v>
       </c>
       <c r="I31" t="n">
-        <v>5330.35574307225</v>
+        <v>6463.22878026237</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2680.7822327782</v>
+        <v>2849.71410737138</v>
       </c>
       <c r="C32" t="n">
-        <v>-277729700418948645317832872711684449261060096</v>
+        <v>-18586.2311091702</v>
       </c>
       <c r="D32" t="n">
-        <v>-424750922938413609394273653664246794331095040</v>
+        <v>-27920.7993938279</v>
       </c>
       <c r="E32" t="n">
-        <v>277729700418948645317832872711684449261060096</v>
+        <v>25189.2192612806</v>
       </c>
       <c r="F32" t="n">
-        <v>424750922938413609394273653664246794331095040</v>
+        <v>34391.6771280715</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>106</v>
       </c>
       <c r="I32" t="n">
-        <v>2574.7822327782</v>
+        <v>2743.71410737138</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1267.08417095458</v>
+        <v>1489.96117157615</v>
       </c>
       <c r="C33" t="n">
-        <v>-3191918722559167487707734810493427100164292608</v>
+        <v>-19929.6210333876</v>
       </c>
       <c r="D33" t="n">
-        <v>-4881618427219923768524137680087983981022150656</v>
+        <v>-31034.6706166385</v>
       </c>
       <c r="E33" t="n">
-        <v>3191918722559167487707734810493427100164292608</v>
+        <v>23601.5621975835</v>
       </c>
       <c r="F33" t="n">
-        <v>4881618427219923768524137680087983981022150656</v>
+        <v>31865.5694741447</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>128</v>
       </c>
       <c r="I33" t="n">
-        <v>1139.08417095458</v>
+        <v>1361.96117157615</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1050.13446991749</v>
+        <v>1364.60586761404</v>
       </c>
       <c r="C34" t="n">
-        <v>-18037026230082435468938312650357667880673214464</v>
+        <v>-19854.2601876073</v>
       </c>
       <c r="D34" t="n">
-        <v>-27585251151515612046039434818291865685866840064</v>
+        <v>-31120.3881551667</v>
       </c>
       <c r="E34" t="n">
-        <v>18037026230082435468938312650357667880673214464</v>
+        <v>24618.4736644324</v>
       </c>
       <c r="F34" t="n">
-        <v>27585251151515612046039434818291865685866840064</v>
+        <v>33578.9505818269</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="I34" t="n">
-        <v>952.134469917494</v>
+        <v>1266.60586761404</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1052.90492305294</v>
+        <v>1155.83641813232</v>
       </c>
       <c r="C35" t="n">
-        <v>-368765666386345281362491456292972679673344425984</v>
+        <v>-22430.4557096674</v>
       </c>
       <c r="D35" t="n">
-        <v>-563978418258188743131473507170357880323187933184</v>
+        <v>-32492.7784889041</v>
       </c>
       <c r="E35" t="n">
-        <v>368765666386345281362491456292972679673344425984</v>
+        <v>23039.1946415779</v>
       </c>
       <c r="F35" t="n">
-        <v>563978418258188743131473507170357880323187933184</v>
+        <v>35818.8669467892</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>118</v>
       </c>
       <c r="I35" t="n">
-        <v>934.904923052942</v>
+        <v>1037.83641813232</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1234.96527692942</v>
+        <v>1386.9119471184</v>
       </c>
       <c r="C36" t="n">
-        <v>-4481904880758431803157922944509560312200836415488</v>
+        <v>-21998.8519057628</v>
       </c>
       <c r="D36" t="n">
-        <v>-6854482008055489432877201206146760676508988080128</v>
+        <v>-32587.0886790951</v>
       </c>
       <c r="E36" t="n">
-        <v>4481904880758431803157922944509560312200836415488</v>
+        <v>25457.6284292469</v>
       </c>
       <c r="F36" t="n">
-        <v>6854482008055489432877201206146760676508988080128</v>
+        <v>35708.2237692135</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>120</v>
       </c>
       <c r="I36" t="n">
-        <v>1114.96527692942</v>
+        <v>1266.9119471184</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1719.14558825428</v>
+        <v>1728.48161680858</v>
       </c>
       <c r="C37" t="n">
-        <v>-96880389380633898993885171956198894300505623756800</v>
+        <v>-21122.1949621527</v>
       </c>
       <c r="D37" t="n">
-        <v>-148165769602542625929629307604460495691021583122432</v>
+        <v>-33674.4061892912</v>
       </c>
       <c r="E37" t="n">
-        <v>96880389380633898993885171956198894300505623756800</v>
+        <v>24330.8651563676</v>
       </c>
       <c r="F37" t="n">
-        <v>148165769602542625929629307604460495691021583122432</v>
+        <v>37898.0151786568</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>72</v>
       </c>
       <c r="I37" t="n">
-        <v>1647.14558825428</v>
+        <v>1656.48161680858</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1479.34565158132</v>
+        <v>1570.32382279068</v>
       </c>
       <c r="C38" t="n">
-        <v>-1601285312758936176511197599935348800963710908628992</v>
+        <v>-22759.5541708817</v>
       </c>
       <c r="D38" t="n">
-        <v>-2448954553496072894737456059340163883907023191932928</v>
+        <v>-35012.9722308675</v>
       </c>
       <c r="E38" t="n">
-        <v>1601285312758936176511197599935348800963710908628992</v>
+        <v>24542.9351138187</v>
       </c>
       <c r="F38" t="n">
-        <v>2448954553496072894737456059340163883907023191932928</v>
+        <v>39201.330436166</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>40</v>
       </c>
       <c r="I38" t="n">
-        <v>1439.34565158132</v>
+        <v>1530.32382279068</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1224.22265336492</v>
+        <v>1519.73032592178</v>
       </c>
       <c r="C39" t="n">
-        <v>-41782993535287784556679816144739860600555390860525568</v>
+        <v>-22939.1968311424</v>
       </c>
       <c r="D39" t="n">
-        <v>-63901574230166149901951840652023789690765710752481280</v>
+        <v>-35220.8636204424</v>
       </c>
       <c r="E39" t="n">
-        <v>41782993535287784556679816144739860600555390860525568</v>
+        <v>23877.0032626755</v>
       </c>
       <c r="F39" t="n">
-        <v>63901574230166149901951840652023789690765710752481280</v>
+        <v>40146.6325615749</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>67</v>
       </c>
       <c r="I39" t="n">
-        <v>1157.22265336492</v>
+        <v>1452.73032592178</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3889.58668034087</v>
+        <v>4227.33028377312</v>
       </c>
       <c r="C40" t="n">
-        <v>-1482643497633052488193810494155792890610826686771494912</v>
+        <v>-19948.2072514646</v>
       </c>
       <c r="D40" t="n">
-        <v>-2267507555217563796133828466548490994333300525929332736</v>
+        <v>-33057.0871141366</v>
       </c>
       <c r="E40" t="n">
-        <v>1482643497633052488193810494155792890610826686771494912</v>
+        <v>27810.1508847688</v>
       </c>
       <c r="F40" t="n">
-        <v>2267507555217563796133828466548490994333300525929332736</v>
+        <v>42402.0277803995</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>90</v>
       </c>
       <c r="I40" t="n">
-        <v>3799.58668034087</v>
+        <v>4137.33028377312</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,19 +1672,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>7436.6440536482</v>
+        <v>8328.32669021565</v>
       </c>
       <c r="C41" t="n">
-        <v>-50689358536129546593560600304232593313551549513531916288</v>
+        <v>-18278.727039285</v>
       </c>
       <c r="D41" t="n">
-        <v>-77522684066195136801942707308756134295229240023617372160</v>
+        <v>-29502.5102399451</v>
       </c>
       <c r="E41" t="n">
-        <v>50689358536129546593560600304232593313551549513531916288</v>
+        <v>32724.2267328184</v>
       </c>
       <c r="F41" t="n">
-        <v>77522684066195136801942707308756134295229240023617372160</v>
+        <v>46632.5943689702</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>75</v>
       </c>
       <c r="I41" t="n">
-        <v>7361.6440536482</v>
+        <v>8253.32669021565</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,19 +1704,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>8744.36096164609</v>
+        <v>10161.7305744747</v>
       </c>
       <c r="C42" t="n">
-        <v>-1432493806731103362498026559436188297628177385134244233216</v>
+        <v>-16581.3238270707</v>
       </c>
       <c r="D42" t="n">
-        <v>-2190810221574288429773603628144654148140218814929808916480</v>
+        <v>-29082.1106893102</v>
       </c>
       <c r="E42" t="n">
-        <v>1432493806731103362498026559436188297628177385134244233216</v>
+        <v>35275.7309556549</v>
       </c>
       <c r="F42" t="n">
-        <v>2190810221574288429773603628144654148140218814929808916480</v>
+        <v>50404.8794612654</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1725,7 +1725,7 @@
         <v>73</v>
       </c>
       <c r="I42" t="n">
-        <v>8671.36096164609</v>
+        <v>10088.7305744747</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,19 +1736,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>5497.67865083359</v>
+        <v>6957.28735656759</v>
       </c>
       <c r="C43" t="n">
-        <v>-25563257446244653642924132936313657002653906054199419863040</v>
+        <v>-20681.6627951664</v>
       </c>
       <c r="D43" t="n">
-        <v>-39095628509394670630393388471437061789347958791017892675584</v>
+        <v>-33898.6659660979</v>
       </c>
       <c r="E43" t="n">
-        <v>25563257446244653642924132936313657002653906054199419863040</v>
+        <v>33730.836281906</v>
       </c>
       <c r="F43" t="n">
-        <v>39095628509394670630393388471437061789347958791017892675584</v>
+        <v>47955.1991255885</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1757,7 +1757,7 @@
         <v>110</v>
       </c>
       <c r="I43" t="n">
-        <v>5387.67865083359</v>
+        <v>6847.28735656759</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,19 +1768,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2680.93062482737</v>
+        <v>3321.12785586034</v>
       </c>
       <c r="C44" t="n">
-        <v>-1087730794629963441774495820028635379837201772241480102969344</v>
+        <v>-24917.9125747404</v>
       </c>
       <c r="D44" t="n">
-        <v>-1663540695253956678857235322320247051699664548945542718160896</v>
+        <v>-37964.4406369985</v>
       </c>
       <c r="E44" t="n">
-        <v>1087730794629963441774495820028635379837201772241480102969344</v>
+        <v>29568.2855066985</v>
       </c>
       <c r="F44" t="n">
-        <v>1663540695253956678857235322320247051699664548945542718160896</v>
+        <v>46201.5300004237</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>99</v>
       </c>
       <c r="I44" t="n">
-        <v>2581.93062482737</v>
+        <v>3222.12785586034</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,19 +1800,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>1267.15030295537</v>
+        <v>2248.93144276152</v>
       </c>
       <c r="C45" t="n">
-        <v>-12389509213687397510076411146145128780618049309327138398142464</v>
+        <v>-24506.1416697114</v>
       </c>
       <c r="D45" t="n">
-        <v>-18948119215659729301505728578378537649879126749671792136159232</v>
+        <v>-39754.0302786146</v>
       </c>
       <c r="E45" t="n">
-        <v>12389509213687397510076411146145128780618049309327138398142464</v>
+        <v>28173.6512463539</v>
       </c>
       <c r="F45" t="n">
-        <v>18948119215659729301505728578378537649879126749671792136159232</v>
+        <v>46151.7593729591</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1821,7 +1821,7 @@
         <v>103</v>
       </c>
       <c r="I45" t="n">
-        <v>1164.15030295537</v>
+        <v>2145.93144276152</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,19 +1832,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>1050.18617730981</v>
+        <v>2243.69507118937</v>
       </c>
       <c r="C46" t="n">
-        <v>-83306893932862578749657259340371098311654412203233650749210624</v>
+        <v>-26783.0523684826</v>
       </c>
       <c r="D46" t="n">
-        <v>-127406899700460398152426044086871371190689675180193480309735424</v>
+        <v>-42415.55867847</v>
       </c>
       <c r="E46" t="n">
-        <v>83306893932862578749657259340371098311654412203233650749210624</v>
+        <v>30427.5340633144</v>
       </c>
       <c r="F46" t="n">
-        <v>127406899700460398152426044086871371190689675180193480309735424</v>
+        <v>46456.5212391042</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1853,7 +1853,7 @@
         <v>72</v>
       </c>
       <c r="I46" t="n">
-        <v>978.186177309808</v>
+        <v>2171.69507118937</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,19 +1864,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1052.95386203309</v>
+        <v>2229.45573443968</v>
       </c>
       <c r="C47" t="n">
-        <v>-1894670925495805350155654366286635918051416098203214867471532032</v>
+        <v>-26577.1473171603</v>
       </c>
       <c r="D47" t="n">
-        <v>-2897649128108932557598919671822789924929383511046180239667363840</v>
+        <v>-40891.9317364228</v>
       </c>
       <c r="E47" t="n">
-        <v>1894670925495805350155654366286635918051416098203214867471532032</v>
+        <v>31189.4684277846</v>
       </c>
       <c r="F47" t="n">
-        <v>2897649128108932557598919671822789924929383511046180239667363840</v>
+        <v>44210.7382579097</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>110</v>
       </c>
       <c r="I47" t="n">
-        <v>942.953862033085</v>
+        <v>2119.45573443968</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,19 +1896,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1235.01949541984</v>
+        <v>2616.36244440749</v>
       </c>
       <c r="C48" t="n">
-        <v>-20130827335528413873721560689487416899218084189412182121062072320</v>
+        <v>-25148.2547563322</v>
       </c>
       <c r="D48" t="n">
-        <v>-30787443609312152048140494929235004012145702262398652336666836992</v>
+        <v>-42378.7530377087</v>
       </c>
       <c r="E48" t="n">
-        <v>20130827335528413873721560689487416899218084189412182121062072320</v>
+        <v>31088.1637673852</v>
       </c>
       <c r="F48" t="n">
-        <v>30787443609312152048140494929235004012145702262398652336666836992</v>
+        <v>44976.2455185447</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         <v>89</v>
       </c>
       <c r="I48" t="n">
-        <v>1146.01949541984</v>
+        <v>2527.36244440749</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,19 +1928,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>1719.21692507452</v>
+        <v>3116.86465169973</v>
       </c>
       <c r="C49" t="n">
-        <v>-626665513567259037950510589906884298349798023636771981177684754432</v>
+        <v>-26523.0977880407</v>
       </c>
       <c r="D49" t="n">
-        <v>-958402197747835046099560385112131546411172122276932336761561939968</v>
+        <v>-42843.0132459207</v>
       </c>
       <c r="E49" t="n">
-        <v>626665513567259037950510589906884298349798023636771981177684754432</v>
+        <v>31288.0914701693</v>
       </c>
       <c r="F49" t="n">
-        <v>958402197747835046099560385112131546411172122276932336761561939968</v>
+        <v>48212.2230584157</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>74</v>
       </c>
       <c r="I49" t="n">
-        <v>1645.21692507452</v>
+        <v>3042.86465169973</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
